--- a/prac/2025/Data_Biodiversity.xlsx
+++ b/prac/2025/Data_Biodiversity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma-bethpeters/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasper/GIT/BIO3018F/prac/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49865EBA-B9DE-894D-B6AE-DA58A1DDFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B450CC36-F70E-5D4E-94D5-41EBBFF7EE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{8533E4D5-6462-294A-885A-9A5B3288A946}"/>
   </bookViews>
@@ -467,10 +467,17 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
